--- a/table/陈意详细资料.xlsx
+++ b/table/陈意详细资料.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>个人简历</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>电子邮件</t>
+  </si>
+  <si>
+    <t>18221705239@163.com</t>
   </si>
   <si>
     <t>居住地址</t>
@@ -270,13 +273,13 @@
     <t>缺点</t>
   </si>
   <si>
-    <t>年级还小,有些玩耍,爱睡觉,有些臭美</t>
+    <t>不善于表达，比较内向的一个人</t>
   </si>
   <si>
     <t>优点</t>
   </si>
   <si>
-    <t>年纪轻有拼劲</t>
+    <t>思想活跃，喜欢小钻研</t>
   </si>
   <si>
     <t>备注</t>
@@ -304,8 +307,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -334,6 +337,14 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -354,22 +365,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,9 +402,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -405,24 +415,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,7 +433,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,46 +455,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,19 +552,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,13 +708,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,108 +726,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -700,36 +733,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,30 +743,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -778,10 +757,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -802,6 +779,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -813,6 +805,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,10 +851,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -860,137 +863,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1012,13 +1015,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1030,7 +1036,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1423,7 +1429,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1562,66 +1568,68 @@
       <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2">
         <v>200000</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="A11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -1650,49 +1658,49 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="A17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1712,56 +1720,56 @@
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="10"/>
+      <c r="A22" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="11"/>
       <c r="C22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="10"/>
+      <c r="A24" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="11"/>
       <c r="C24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="D24" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="D25" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="4"/>
@@ -1772,27 +1780,27 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="B27" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1806,8 +1814,8 @@
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="13" t="s">
-        <v>65</v>
+      <c r="A30" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1858,6 +1866,9 @@
     <mergeCell ref="E28:F31"/>
     <mergeCell ref="A30:D31"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E9" r:id="rId2" display="18221705239@163.com"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
